--- a/62434bb0350d9c5b7b8f6b4d52bfed8f_data_entry.xlsx
+++ b/62434bb0350d9c5b7b8f6b4d52bfed8f_data_entry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>CB: Classification</t>
   </si>
@@ -27,6 +27,9 @@
     <t>CB: Flagged Attribute</t>
   </si>
   <si>
+    <t>OL: Character Encoding</t>
+  </si>
+  <si>
     <t>RDF210</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>utf-8</t>
   </si>
   <si>
     <t>car_style</t>
@@ -482,16 +488,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="35" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,75 +511,93 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -585,6 +610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -595,22 +623,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
